--- a/biology/Histoire de la zoologie et de la botanique/Richard_Arnold_Dümmer/Richard_Arnold_Dümmer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Arnold_Dümmer/Richard_Arnold_Dümmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard_Arnold_D%C3%BCmmer</t>
+          <t>Richard_Arnold_Dümmer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Arnold Dümmer, né en 1887 au Cap (Afrique du Sud) et décédé le 2 décembre 1922 à Kampala (Ouganda), est un horticulteur, collecteur et botaniste sud-africain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Richard_Arnold_D%C3%BCmmer</t>
+          <t>Richard_Arnold_Dümmer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardinier au jardins municipaux du Cap jusqu'en 1910, il entre aux jardins de Kew et devient l'assistant du professeur Augustine Henry en 1911. Il y travaille sur les herbiers ainsi que dans les bibliothèques du British Museum, des universités d'Oxford, Cambridge, Édimbourg et de la Société linnéenne de Londres.
 En 1914, il entre dans la compagnie du Caoutchouc du Kivuvu à Kampala. Il en profite pour collecter de nombreux échantillons de plantes et champignons. Il passe un an au Cap à ordonner et identifier ses échantillons.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Richard_Arnold_D%C3%BCmmer</t>
+          <t>Richard_Arnold_Dümmer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>An Enumeration of the Bruniaceae. Ed. West, Newman. 1912.
 The conifers of the Lindley Herbarium, Botany School, Cambridge. - J. Roy. Hort. Soc. 39, 1913
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Richard_Arnold_D%C3%BCmmer</t>
+          <t>Richard_Arnold_Dümmer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quelques plantes lui ont été dédiées :
 Agathosma dummeri E.Phillips (1917) - Rutacée d'Afrique australe (province du Cap)
